--- a/uefa_champions_winners.xlsx
+++ b/uefa_champions_winners.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\csv\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10EA0DA4-EEFB-4454-8D04-3766D9014475}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18852" windowHeight="3156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="16515" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="uefa_champions_winners" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="191">
   <si>
     <t>Season</t>
   </si>
@@ -572,13 +566,34 @@
   </si>
   <si>
     <t>Wanda Metropolitano</t>
+  </si>
+  <si>
+    <t>2019–20</t>
+  </si>
+  <si>
+    <t>París Saint-Germain</t>
+  </si>
+  <si>
+    <t>Estádio da Luz</t>
+  </si>
+  <si>
+    <t>2020–21</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Estadio Do Dragao</t>
+  </si>
+  <si>
+    <t>2021–22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,9 +609,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -640,7 +656,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1033,90 +1049,82 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1126,44 +1134,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1190,32 +1198,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1242,24 +1232,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1271,154 +1243,178 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1470,7 +1466,7 @@
         <v>38239</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1496,7 +1492,7 @@
         <v>124000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1522,7 +1518,7 @@
         <v>67000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1548,7 +1544,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1574,7 +1570,7 @@
         <v>127621</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1600,7 +1596,7 @@
         <v>26732</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1626,7 +1622,7 @@
         <v>61257</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1652,7 +1648,7 @@
         <v>45715</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1678,7 +1674,7 @@
         <v>71333</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1704,7 +1700,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1730,7 +1726,7 @@
         <v>46745</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1756,7 +1752,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1782,7 +1778,7 @@
         <v>92225</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1808,7 +1804,7 @@
         <v>31782</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1834,7 +1830,7 @@
         <v>53187</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1860,7 +1856,7 @@
         <v>83179</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1886,7 +1882,7 @@
         <v>61354</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -1912,7 +1908,7 @@
         <v>89484</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1938,7 +1934,7 @@
         <v>72047</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -1964,7 +1960,7 @@
         <v>48374</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -1990,7 +1986,7 @@
         <v>54864</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2016,7 +2012,7 @@
         <v>52078</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -2042,7 +2038,7 @@
         <v>92500</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -2068,7 +2064,7 @@
         <v>57500</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -2094,7 +2090,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -2120,7 +2116,7 @@
         <v>48360</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -2146,7 +2142,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -2172,7 +2168,7 @@
         <v>73500</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -2198,7 +2194,7 @@
         <v>69693</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -2224,7 +2220,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -2250,7 +2246,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -2302,7 +2298,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2328,7 +2324,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -2354,7 +2350,7 @@
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -2380,7 +2376,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -2406,7 +2402,7 @@
         <v>70827</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -2432,7 +2428,7 @@
         <v>64400</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -2458,7 +2454,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -2484,7 +2480,7 @@
         <v>49730</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -2510,7 +2506,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -2536,7 +2532,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -2562,7 +2558,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -2588,7 +2584,7 @@
         <v>90245</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -2614,7 +2610,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -2640,7 +2636,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -2666,7 +2662,7 @@
         <v>50499</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -2692,7 +2688,7 @@
         <v>62315</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -2718,7 +2714,7 @@
         <v>53053</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -2744,7 +2740,7 @@
         <v>69000</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -2770,7 +2766,7 @@
         <v>79610</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -2796,7 +2792,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -2822,7 +2818,7 @@
         <v>67310</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -2848,7 +2844,7 @@
         <v>62467</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>163</v>
       </c>
@@ -2874,7 +2870,7 @@
         <v>73490</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -2900,7 +2896,7 @@
         <v>87695</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>166</v>
       </c>
@@ -2926,7 +2922,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>169</v>
       </c>
@@ -2952,7 +2948,7 @@
         <v>86298</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -2978,7 +2974,7 @@
         <v>60976</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>173</v>
       </c>
@@ -3004,7 +3000,7 @@
         <v>70442</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -3030,7 +3026,7 @@
         <v>71942</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>177</v>
       </c>
@@ -3056,7 +3052,7 @@
         <v>65842</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -3082,7 +3078,7 @@
         <v>61561</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>181</v>
       </c>
@@ -3106,6 +3102,84 @@
       </c>
       <c r="H65">
         <v>63272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s">
+        <v>186</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" t="s">
+        <v>189</v>
+      </c>
+      <c r="H67">
+        <v>14110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" t="s">
+        <v>189</v>
+      </c>
+      <c r="H68">
+        <v>75000</v>
       </c>
     </row>
   </sheetData>
